--- a/biology/Zoologie/Mycetophila_longipennis/Mycetophila_longipennis.xlsx
+++ b/biology/Zoologie/Mycetophila_longipennis/Mycetophila_longipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycetophila longipennis est une espèce fossile d'insectes diptères de la famille des Mycetophilidae (littéralement « amis des champignons »).
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Mycetophila longipennis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2].
-Une collection de l'Oligocène de France
-L'holotype est un échantillon M33 des collections de l'Institut géologique de Lyon provenant du gypse d'Aix-en-Provence et conservé au Muséum de Marseille[1].
-Confirmation du genre
-Le genre est confirmé en 2021 par les entomologistes brésiliens Sarah Siqueira Oliveira (d) et Dalton De Souza Amorim (d)[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Mycetophila longipennis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
 </t>
         </is>
       </c>
@@ -543,16 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte noirâtre, assez bien conservé, couché sur le côté. Se rapproche beaucoup de M. confusa, mais en diffère par les ailes qui dépassent largement l'abdomen. Les fémurs aussi sont relativement plus longs. Se rapproche de M. cf pallipes par la longueur des ailes, mais l'abdomen est de conformation différente. Les tibias sont armés comme dans M. confusa. »[1].
-Dimensions
-La longueur totale est de 4,2 mm ; la longueur des ailes est de 3,75 mm[1].
+          <t>Une collection de l'Oligocène de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype est un échantillon M33 des collections de l'Institut géologique de Lyon provenant du gypse d'Aix-en-Provence et conservé au Muséum de Marseille.
 </t>
         </is>
       </c>
@@ -578,13 +590,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est confirmé en 2021 par les entomologistes brésiliens Sarah Siqueira Oliveira (d) et Dalton De Souza Amorim (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte noirâtre, assez bien conservé, couché sur le côté. Se rapproche beaucoup de M. confusa, mais en diffère par les ailes qui dépassent largement l'abdomen. Les fémurs aussi sont relativement plus longs. Se rapproche de M. cf pallipes par la longueur des ailes, mais l'abdomen est de conformation différente. Les tibias sont armés comme dans M. confusa. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4,2 mm ; la longueur des ailes est de 3,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_longipennis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourrissent de champignons. »[4].
+« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourrissent de champignons. ».
 </t>
         </is>
       </c>
